--- a/excel/image_VOC.xlsx
+++ b/excel/image_VOC.xlsx
@@ -429,210 +429,210 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>13.78802385090957</v>
+        <v>16.48208760923459</v>
       </c>
       <c r="B2">
-        <v>9.396798876128171</v>
+        <v>11.60449920990471</v>
       </c>
       <c r="C2">
-        <v>23.24294459895238</v>
+        <v>25.39430710162866</v>
       </c>
       <c r="D2">
-        <v>18.01523291508072</v>
+        <v>20.04126479990338</v>
       </c>
       <c r="E2">
-        <v>8.480610394661706</v>
+        <v>8.085943101704538</v>
       </c>
       <c r="F2">
-        <v>20.2444322796513</v>
+        <v>24.59457020307398</v>
       </c>
       <c r="G2">
-        <v>6.07986028414278</v>
+        <v>6.963019463660619</v>
       </c>
       <c r="H2">
-        <v>6.732560025629095</v>
+        <v>6.48032250750338</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>14.02736788013255</v>
+        <v>7.87284873380222</v>
       </c>
       <c r="B3">
-        <v>10.80162703866682</v>
+        <v>3.743358934271786</v>
       </c>
       <c r="C3">
-        <v>16.81552073562594</v>
+        <v>5.306553259763645</v>
       </c>
       <c r="D3">
-        <v>12.18556785223735</v>
+        <v>6.486383806751605</v>
       </c>
       <c r="E3">
-        <v>7.128706043774032</v>
+        <v>2.966507461297993</v>
       </c>
       <c r="F3">
-        <v>21.667028693322</v>
+        <v>6.473765175352564</v>
       </c>
       <c r="G3">
-        <v>5.007272178819238</v>
+        <v>0.4186921002295484</v>
       </c>
       <c r="H3">
-        <v>4.338275946111366</v>
+        <v>0.7158850684314211</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>11.34879414936599</v>
+        <v>13.06571050378258</v>
       </c>
       <c r="B4">
-        <v>4.865385860060143</v>
+        <v>6.209296762010482</v>
       </c>
       <c r="C4">
-        <v>13.52383555209321</v>
+        <v>17.51859722948665</v>
       </c>
       <c r="D4">
-        <v>10.79144635893083</v>
+        <v>13.69680854255826</v>
       </c>
       <c r="E4">
-        <v>7.636368473503054</v>
+        <v>6.24688381892113</v>
       </c>
       <c r="F4">
-        <v>5.411439391021911</v>
+        <v>6.891833809130398</v>
       </c>
       <c r="G4">
-        <v>4.514209755407942</v>
+        <v>5.576635463780396</v>
       </c>
       <c r="H4">
-        <v>4.931676349370706</v>
+        <v>5.345808676236599</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>8.849109776984413</v>
+        <v>2.395705171740218</v>
       </c>
       <c r="B5">
-        <v>4.913514591819427</v>
+        <v>0.7910547061146703</v>
       </c>
       <c r="C5">
-        <v>10.00191992955884</v>
+        <v>2.08567894940443</v>
       </c>
       <c r="D5">
-        <v>8.38219127047118</v>
+        <v>4.462957896919937</v>
       </c>
       <c r="E5">
-        <v>6.609883247449086</v>
+        <v>1.636096112741183</v>
       </c>
       <c r="F5">
-        <v>4.673007236823413</v>
+        <v>2.746563786488233</v>
       </c>
       <c r="G5">
-        <v>3.78649316821376</v>
+        <v>1.974907394767</v>
       </c>
       <c r="H5">
-        <v>5.233054687687143</v>
+        <v>2.057673502310073</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>14.38979058551207</v>
+        <v>19.29581675849649</v>
       </c>
       <c r="B6">
-        <v>8.316720462077978</v>
+        <v>11.61684716888052</v>
       </c>
       <c r="C6">
-        <v>24.55256358678545</v>
+        <v>27.20134313542349</v>
       </c>
       <c r="D6">
-        <v>19.14149276018714</v>
+        <v>24.08268257097681</v>
       </c>
       <c r="E6">
-        <v>3.637588802063656</v>
+        <v>4.391764572640505</v>
       </c>
       <c r="F6">
-        <v>7.427486377878107</v>
+        <v>7.767808935017965</v>
       </c>
       <c r="G6">
-        <v>14.66098956768503</v>
+        <v>20.90773874036492</v>
       </c>
       <c r="H6">
-        <v>6.030849334749828</v>
+        <v>7.051897929429996</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>9.023612752091024</v>
+        <v>5.456510614768589</v>
       </c>
       <c r="B7">
-        <v>5.594689420053624</v>
+        <v>2.670645375103524</v>
       </c>
       <c r="C7">
-        <v>14.39327123899499</v>
+        <v>13.47201932691662</v>
       </c>
       <c r="D7">
-        <v>17.20042076347551</v>
+        <v>18.63204653188465</v>
       </c>
       <c r="E7">
-        <v>4.068996339379948</v>
+        <v>1.766801874455064</v>
       </c>
       <c r="F7">
-        <v>3.998722279023315</v>
+        <v>1.862473351040774</v>
       </c>
       <c r="G7">
-        <v>15.61232583586962</v>
+        <v>9.53909994903829</v>
       </c>
       <c r="H7">
-        <v>2.965767494022213</v>
+        <v>1.636759267481251</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>14.80035624595767</v>
+        <v>16.41831120603199</v>
       </c>
       <c r="B8">
-        <v>5.994432763037034</v>
+        <v>7.595432231849967</v>
       </c>
       <c r="C8">
-        <v>21.31662978388117</v>
+        <v>24.479512445339</v>
       </c>
       <c r="D8">
-        <v>23.08669609463662</v>
+        <v>23.84169355886458</v>
       </c>
       <c r="E8">
-        <v>9.378160063458054</v>
+        <v>12.38535364711975</v>
       </c>
       <c r="F8">
-        <v>12.26183835445026</v>
+        <v>16.1739023947686</v>
       </c>
       <c r="G8">
-        <v>13.40673936007281</v>
+        <v>16.97201024632696</v>
       </c>
       <c r="H8">
-        <v>11.06872018937697</v>
+        <v>15.09542069465554</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>8.505697177831944</v>
+        <v>3.217436911342229</v>
       </c>
       <c r="B9">
-        <v>5.146368922199227</v>
+        <v>2.946381799140056</v>
       </c>
       <c r="C9">
-        <v>21.55848160074812</v>
+        <v>16.0086256391021</v>
       </c>
       <c r="D9">
-        <v>13.25586548276003</v>
+        <v>11.10804689703204</v>
       </c>
       <c r="E9">
-        <v>6.755179827404515</v>
+        <v>5.050624946444874</v>
       </c>
       <c r="F9">
-        <v>11.32539367997228</v>
+        <v>10.38891130715429</v>
       </c>
       <c r="G9">
-        <v>11.58986287728273</v>
+        <v>10.36581649357796</v>
       </c>
       <c r="H9">
-        <v>12.71792190831222</v>
+        <v>13.03093497725879</v>
       </c>
     </row>
   </sheetData>
